--- a/Desarrollo/GSC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/GSC/Gestion/Cronograma.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\GSC\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTO\FisiDev-Solutions\Desarrollo\GSC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FCE29C-C26A-432A-B912-0E3D1F879DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Tarea</t>
   </si>
@@ -60,9 +59,6 @@
     <t>Project Manager</t>
   </si>
   <si>
-    <t>Completado</t>
-  </si>
-  <si>
     <t>Elaboracion del Documento de Gestion</t>
   </si>
   <si>
@@ -81,9 +77,6 @@
     <t>SGC-DN.docx</t>
   </si>
   <si>
-    <t>En curso</t>
-  </si>
-  <si>
     <t>Elaboración de Lista de Requisitos</t>
   </si>
   <si>
@@ -94,9 +87,6 @@
   </si>
   <si>
     <t>Project Manager / DBA / BackEnd</t>
-  </si>
-  <si>
-    <t>Sin comenzar</t>
   </si>
   <si>
     <t>Elaboracion del documento de analisis</t>
@@ -234,8 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,9 +545,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -568,9 +555,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,6 +616,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +655,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -683,15 +673,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G18">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMENCLATURA"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ROL"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="INICIO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FIN"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ESTADO"/>
+    <tableColumn id="1" name="Tarea"/>
+    <tableColumn id="2" name="ARTEFACTO"/>
+    <tableColumn id="3" name="NOMENCLATURA"/>
+    <tableColumn id="4" name="ROL"/>
+    <tableColumn id="5" name="INICIO"/>
+    <tableColumn id="6" name="FIN"/>
+    <tableColumn id="7" name="ESTADO"/>
   </tableColumns>
   <tableStyleInfo name="CRONOGRAMA-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -902,21 +892,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -958,43 +948,43 @@
       <c r="F2" s="8">
         <v>45743</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12">
+        <v>45743</v>
+      </c>
+      <c r="F3" s="12">
+        <v>45750</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13">
-        <v>45743</v>
-      </c>
-      <c r="F3" s="13">
-        <v>45750</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
@@ -1005,341 +995,341 @@
       <c r="F4" s="8">
         <v>45757</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="12">
+        <v>45757</v>
+      </c>
+      <c r="F5" s="18">
+        <v>45764</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13">
-        <v>45757</v>
-      </c>
-      <c r="F5" s="20">
-        <v>45764</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="18">
+        <v>45771</v>
+      </c>
+      <c r="F6" s="19">
+        <v>45774</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24">
+        <v>45774</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="20">
-        <v>45771</v>
-      </c>
-      <c r="F6" s="21">
-        <v>45774</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="C8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26">
-        <v>45774</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="8">
         <v>45774</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <v>45778</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="E9" s="27">
+        <v>45778</v>
+      </c>
+      <c r="F9" s="27">
+        <v>45782</v>
+      </c>
+      <c r="G9" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="C10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="29">
-        <v>45778</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="D10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="27">
         <v>45782</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="F10" s="27">
+        <v>45789</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="29">
-        <v>45782</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="31">
         <v>45789</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="F11" s="31">
+        <v>45789</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32">
+        <v>45789</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="A13" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="C13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="31">
         <v>45789</v>
       </c>
-      <c r="F11" s="33">
-        <v>45789</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34">
-        <v>45789</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="F13" s="31">
+        <v>45790</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="B14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="C14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="33">
-        <v>45789</v>
-      </c>
-      <c r="F13" s="33">
+      <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="33">
         <v>45790</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="28" t="s">
+      <c r="F14" s="33">
+        <v>45834</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="B15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="35">
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="31">
         <v>45790</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F15" s="31">
         <v>45834</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="B16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="C16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="33">
-        <v>45790</v>
-      </c>
-      <c r="F15" s="33">
-        <v>45834</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="D16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="E16" s="33">
+        <v>45811</v>
+      </c>
+      <c r="F16" s="33">
+        <v>45814</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1">
+      <c r="A17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="B17" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C17" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="35">
-        <v>45811</v>
-      </c>
-      <c r="F16" s="35">
-        <v>45814</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="D17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="E17" s="31">
+        <v>45815</v>
+      </c>
+      <c r="F17" s="31">
+        <v>45818</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1">
+      <c r="A18" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="B18" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="C18" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="33">
-        <v>45815</v>
-      </c>
-      <c r="F17" s="33">
-        <v>45818</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="D18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>45819</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>45820</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>23</v>
+      <c r="G18" s="35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G18">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F18">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:D18" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:D18"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Desarrollo/GSC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/GSC/Gestion/Cronograma.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTO\FisiDev-Solutions\Desarrollo\GSC\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\GSC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DCBA43-79AA-444B-919A-DE5D6590057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -224,8 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,7 +656,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3">
+    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -673,15 +674,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G18">
   <tableColumns count="7">
-    <tableColumn id="1" name="Tarea"/>
-    <tableColumn id="2" name="ARTEFACTO"/>
-    <tableColumn id="3" name="NOMENCLATURA"/>
-    <tableColumn id="4" name="ROL"/>
-    <tableColumn id="5" name="INICIO"/>
-    <tableColumn id="6" name="FIN"/>
-    <tableColumn id="7" name="ESTADO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMENCLATURA"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ROL"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="INICIO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FIN"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ESTADO"/>
   </tableColumns>
   <tableStyleInfo name="CRONOGRAMA-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -884,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -892,21 +893,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -952,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -972,11 +973,11 @@
         <v>45750</v>
       </c>
       <c r="G3" s="35">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -996,10 +997,10 @@
         <v>45757</v>
       </c>
       <c r="G4" s="34">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
@@ -1019,10 +1020,10 @@
         <v>45764</v>
       </c>
       <c r="G5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>25</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>33</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>37</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>41</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>45</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>49</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>53</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>57</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>61</v>
       </c>
@@ -1319,17 +1320,17 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G18">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F18">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:D18"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:D18" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Desarrollo/GSC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/GSC/Gestion/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\GSC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DCBA43-79AA-444B-919A-DE5D6590057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3FF9CA-285F-4E73-85B1-0EFBD859EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Tarea</t>
   </si>
@@ -88,15 +88,6 @@
   </si>
   <si>
     <t>Project Manager / DBA / BackEnd</t>
-  </si>
-  <si>
-    <t>Elaboracion del documento de analisis</t>
-  </si>
-  <si>
-    <t>Docuemnto de analisis</t>
-  </si>
-  <si>
-    <t>SGC-DA.docx</t>
   </si>
   <si>
     <t xml:space="preserve"> HITO 1: ANÁLISIS</t>
@@ -226,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,11 +251,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -520,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -574,49 +560,46 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,7 +657,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G17">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
@@ -889,11 +872,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -949,7 +932,7 @@
       <c r="F2" s="8">
         <v>45743</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>1</v>
       </c>
     </row>
@@ -972,7 +955,7 @@
       <c r="F3" s="12">
         <v>45750</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>1</v>
       </c>
       <c r="H3" s="13"/>
@@ -996,7 +979,7 @@
       <c r="F4" s="8">
         <v>45757</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>1</v>
       </c>
     </row>
@@ -1019,322 +1002,298 @@
       <c r="F5" s="18">
         <v>45764</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="34">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
+        <v>45774</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="B7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="18">
-        <v>45771</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="C7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8">
         <v>45774</v>
       </c>
-      <c r="G6" s="35">
+      <c r="F7" s="26">
+        <v>45778</v>
+      </c>
+      <c r="G7" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="26">
+        <v>45778</v>
+      </c>
+      <c r="F8" s="26">
+        <v>45782</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="26">
+        <v>45782</v>
+      </c>
+      <c r="F9" s="26">
+        <v>45789</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="30">
+        <v>45789</v>
+      </c>
+      <c r="F10" s="30">
+        <v>45789</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24">
-        <v>45774</v>
-      </c>
-      <c r="G7" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="8">
-        <v>45774</v>
-      </c>
-      <c r="F8" s="27">
-        <v>45778</v>
-      </c>
-      <c r="G8" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="27">
-        <v>45778</v>
-      </c>
-      <c r="F9" s="27">
-        <v>45782</v>
-      </c>
-      <c r="G9" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="27">
-        <v>45782</v>
-      </c>
-      <c r="F10" s="27">
-        <v>45789</v>
-      </c>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="31">
-        <v>45789</v>
-      </c>
+      <c r="E11" s="31"/>
       <c r="F11" s="31">
         <v>45789</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32">
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="30">
         <v>45789</v>
       </c>
-      <c r="G12" s="35">
+      <c r="F12" s="30">
+        <v>45790</v>
+      </c>
+      <c r="G12" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="31">
-        <v>45789</v>
-      </c>
-      <c r="F13" s="31">
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="32">
         <v>45790</v>
       </c>
-      <c r="G13" s="35">
+      <c r="F13" s="32">
+        <v>45834</v>
+      </c>
+      <c r="G13" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="33">
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="30">
         <v>45790</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="30">
         <v>45834</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="31">
-        <v>45790</v>
-      </c>
-      <c r="F15" s="31">
-        <v>45834</v>
-      </c>
-      <c r="G15" s="35">
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="32">
+        <v>45811</v>
+      </c>
+      <c r="F15" s="32">
+        <v>45814</v>
+      </c>
+      <c r="G15" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="33">
-        <v>45811</v>
-      </c>
-      <c r="F16" s="33">
-        <v>45814</v>
-      </c>
-      <c r="G16" s="35">
+      <c r="D16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="30">
+        <v>45815</v>
+      </c>
+      <c r="F16" s="30">
+        <v>45818</v>
+      </c>
+      <c r="G16" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="31">
-        <v>45815</v>
-      </c>
-      <c r="F17" s="31">
-        <v>45818</v>
-      </c>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="E17" s="32">
         <v>45819</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F17" s="32">
         <v>45820</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G17" s="34">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:D18" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:D17" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Desarrollo/GSC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/GSC/Gestion/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\GSC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3FF9CA-285F-4E73-85B1-0EFBD859EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C496E99-E325-45F9-ACA0-9A5A9D7DA1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Tarea</t>
   </si>
@@ -117,18 +117,6 @@
     <t>DBA / BackEnd</t>
   </si>
   <si>
-    <t>Diseño de la base de datos</t>
-  </si>
-  <si>
-    <t>Modelo de Base de Datos</t>
-  </si>
-  <si>
-    <t>SGC-BD.mwb</t>
-  </si>
-  <si>
-    <t>DBA</t>
-  </si>
-  <si>
     <t>Validación de diseño con el cliente</t>
   </si>
   <si>
@@ -211,17 +199,45 @@
   </si>
   <si>
     <t>Project Manager / QA</t>
+  </si>
+  <si>
+    <t>Elaboracion Plan de Gestión de la Configuración</t>
+  </si>
+  <si>
+    <t>Documento de Plan de Gestion</t>
+  </si>
+  <si>
+    <t>SGC-DPG.dox</t>
+  </si>
+  <si>
+    <t>Diseño de interfaz de usuario (UI/UX)</t>
+  </si>
+  <si>
+    <t>Interfaz de Usuario</t>
+  </si>
+  <si>
+    <t>SGC-IDU.docx</t>
+  </si>
+  <si>
+    <t>HITO 3: DESARROLLO Y DESPIELQUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,19 +291,50 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B3F86"/>
-        <bgColor rgb="FF5B3F86"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -313,8 +360,38 @@
         <bgColor rgb="FF674EA7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9933FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FF5B3F86"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -502,117 +579,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -640,11 +765,18 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="CRONOGRAMA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF9933FF"/>
+      <color rgb="FF9999FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -657,7 +789,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
@@ -872,11 +1004,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -891,136 +1023,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <v>45742</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>45743</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>45743</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>45750</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="30">
         <v>1</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>45750</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>45757</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>45757</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <v>45764</v>
       </c>
-      <c r="G5" s="34">
-        <v>0.3</v>
+      <c r="G5" s="30">
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23">
+      <c r="A6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45772</v>
+      </c>
+      <c r="F6" s="4">
         <v>45774</v>
       </c>
       <c r="G6" s="34">
@@ -1028,265 +1162,299 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <v>45774</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="4">
         <v>45774</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F8" s="22">
         <v>45778</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G8" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E9" s="22">
         <v>45778</v>
       </c>
-      <c r="F8" s="26">
-        <v>45782</v>
-      </c>
-      <c r="G8" s="34">
+      <c r="F9" s="22">
+        <v>45781</v>
+      </c>
+      <c r="G9" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="43">
+        <v>45781</v>
+      </c>
+      <c r="F10" s="43">
+        <v>45789</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="26">
+        <v>45789</v>
+      </c>
+      <c r="F11" s="26">
+        <v>45790</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="26">
-        <v>45782</v>
-      </c>
-      <c r="F9" s="26">
-        <v>45789</v>
-      </c>
-      <c r="G9" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="30">
-        <v>45789</v>
-      </c>
-      <c r="F10" s="30">
-        <v>45789</v>
-      </c>
-      <c r="G10" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31">
-        <v>45789</v>
-      </c>
-      <c r="G11" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="30">
-        <v>45789</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="E12" s="27"/>
+      <c r="F12" s="27">
         <v>45790</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="32">
+        <v>37</v>
+      </c>
+      <c r="E13" s="26">
         <v>45790</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="26">
+        <v>45791</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="28">
+        <v>45791</v>
+      </c>
+      <c r="F14" s="28">
         <v>45834</v>
       </c>
-      <c r="G13" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="30">
-        <v>45790</v>
-      </c>
-      <c r="F14" s="30">
-        <v>45834</v>
-      </c>
-      <c r="G14" s="34">
+      <c r="G14" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="32">
+        <v>45</v>
+      </c>
+      <c r="E15" s="26">
+        <v>45791</v>
+      </c>
+      <c r="F15" s="26">
+        <v>45834</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="28">
         <v>45811</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F16" s="28">
         <v>45814</v>
       </c>
-      <c r="G15" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="30">
-        <v>45815</v>
-      </c>
-      <c r="F16" s="30">
-        <v>45818</v>
-      </c>
-      <c r="G16" s="34">
+      <c r="G16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="32">
+        <v>53</v>
+      </c>
+      <c r="E17" s="26">
+        <v>45815</v>
+      </c>
+      <c r="F17" s="26">
+        <v>45818</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="28">
         <v>45819</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F18" s="28">
         <v>45820</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="47">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:D17" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Desarrollo/GSC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/GSC/Gestion/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\GSC\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronald\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C496E99-E325-45F9-ACA0-9A5A9D7DA1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85AE158-30A8-4799-BEFA-B66BF6393F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="2550" windowWidth="17085" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Documentación de Entorno</t>
   </si>
   <si>
-    <t>SGC-DEVSETUP.docx</t>
-  </si>
-  <si>
     <t>BackEnd / DBA</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Pruebas de integración</t>
   </si>
   <si>
-    <t>SGC-INTEGRATION.docx</t>
-  </si>
-  <si>
     <t>FrontEnd / BackEnd</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Reporte de pruebas</t>
   </si>
   <si>
-    <t>SGC-PRUEBAS.docx</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -195,21 +186,12 @@
     <t>Manual de Despliegue</t>
   </si>
   <si>
-    <t>SGC-DEPLOY.docx</t>
-  </si>
-  <si>
     <t>Project Manager / QA</t>
   </si>
   <si>
     <t>Elaboracion Plan de Gestión de la Configuración</t>
   </si>
   <si>
-    <t>Documento de Plan de Gestion</t>
-  </si>
-  <si>
-    <t>SGC-DPG.dox</t>
-  </si>
-  <si>
     <t>Diseño de interfaz de usuario (UI/UX)</t>
   </si>
   <si>
@@ -220,17 +202,42 @@
   </si>
   <si>
     <t>HITO 3: DESARROLLO Y DESPIELQUE</t>
+  </si>
+  <si>
+    <t>Documento de Plan de Gestion de la Configuración</t>
+  </si>
+  <si>
+    <t>SGC-PGC.docx</t>
+  </si>
+  <si>
+    <t>SGC-MP.docx</t>
+  </si>
+  <si>
+    <t>SGC-RP.docx</t>
+  </si>
+  <si>
+    <t>SGC-PI.docx</t>
+  </si>
+  <si>
+    <t>SGC-DE.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,136 +601,136 @@
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,44 +1015,44 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1099,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -1125,7 +1132,7 @@
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="8">
@@ -1138,30 +1145,30 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4">
         <v>45772</v>
       </c>
       <c r="F6" s="4">
-        <v>45774</v>
-      </c>
-      <c r="G6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45785</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
@@ -1176,17 +1183,17 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19">
-        <v>45774</v>
+        <v>45785</v>
       </c>
       <c r="G7" s="30">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -1205,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
@@ -1228,30 +1235,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>63</v>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <v>45781</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>45789</v>
       </c>
       <c r="G10" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>30</v>
       </c>
@@ -1274,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
@@ -1303,10 +1310,10 @@
         <v>35</v>
       </c>
       <c r="C13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="26">
         <v>45790</v>
@@ -1318,18 +1325,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E14" s="28">
         <v>45791</v>
@@ -1341,18 +1348,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="C15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="D15" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="26">
         <v>45791</v>
@@ -1364,18 +1371,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="28">
         <v>45811</v>
@@ -1387,18 +1394,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="26">
         <v>45815</v>
@@ -1410,18 +1417,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E18" s="28">
         <v>45819</v>
@@ -1433,16 +1440,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="47">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="46">
         <v>0</v>
       </c>
     </row>
